--- a/ROP 399 Final Report/Feature computation and KPrototypes/Cluster summary.xlsx
+++ b/ROP 399 Final Report/Feature computation and KPrototypes/Cluster summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,8 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,247 +453,251 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="12" max="12" width="77.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="23.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="77.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>261</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>279</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>532</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>280</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>558</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
